--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117958.076694031</v>
+        <v>1102166.449012882</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584667</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12434090.29608771</v>
+        <v>12434090.2960877</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>83.40091804193491</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -902,67 +902,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>37.83939432415834</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,67 +1133,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>166.0883458849017</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>150.6282472375675</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.7971069851556</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46.1121290207501</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>29.38391736390409</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.1370799310461</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>19.67332659903517</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>139.0040889808855</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>191.899688251039</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>93.72700595910926</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>29.38391736390425</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1749,7 +1749,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1807,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.58673470997152</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.60419956430028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>135.9482401285402</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,7 +1929,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>20.93857480559832</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1980,10 +1980,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>181.2558810106748</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>16.60419956430016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.87440209048507</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.22609963397728</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>25.2564838622319</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>166.7979988061142</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.15451545225793</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.927487311963</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>315.2083008025076</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>383.380086515022</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>31.00171867547457</v>
       </c>
       <c r="H24" t="n">
-        <v>35.8220561203464</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>16.83786409935511</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3265768440191</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,10 +2570,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>66.48153683347897</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2640,7 +2640,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>80.30405085811515</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2697,7 +2697,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>128.4319556061918</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>315.2083008025081</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0292560675709</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>181.2558810106748</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>75.53568301893134</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>129.8971817942919</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.8658322964591</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>103.7047784660319</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>411.0180049030062</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>87.08036771626205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.456834824088546</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>268.7418428881288</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>172.8686135333205</v>
+        <v>11.59628999391623</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>127.1081688162649</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.15718953603345</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20.47505656865777</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.59628999391616</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>44.10725536086277</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>6.415733460898577</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2713807262490945</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,22 +3743,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>198.434531219735</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.128224454854575</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>68.04005197492994</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>89.14352724124581</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.8482076906871</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.84726985309806</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>3.619989486292438</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>60.11425531312954</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4116,7 +4116,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>198.3125165875166</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>135.8803768022634</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="C3" t="n">
         <v>20.03527576299844</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
     </row>
     <row r="4">
@@ -4480,13 +4480,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.38115216564972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C6" t="n">
-        <v>49.38115216564972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>49.38115216564972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>752.4182005328623</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>752.4182005328623</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>752.4182005328623</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.38115216564972</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4714,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C8" t="n">
-        <v>812.6742080953335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>812.6742080953335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>796.2911495662911</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>796.2911495662911</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>796.2911495662911</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>796.2911495662911</v>
       </c>
       <c r="W9" t="n">
-        <v>777.5613083818946</v>
+        <v>796.2911495662911</v>
       </c>
       <c r="X9" t="n">
-        <v>569.7098081763618</v>
+        <v>796.2911495662911</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>588.5308508013372</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5002,10 +5002,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1312.061209271462</v>
+        <v>790.948947646639</v>
       </c>
       <c r="C11" t="n">
-        <v>943.0986923310506</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D11" t="n">
-        <v>584.8329937243002</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E11" t="n">
-        <v>199.044741126056</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F11" t="n">
-        <v>199.044741126056</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>199.044741126056</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>199.044741126056</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2270.376276991246</v>
+        <v>2135.863855430544</v>
       </c>
       <c r="U11" t="n">
-        <v>2016.589854876113</v>
+        <v>1882.077433315411</v>
       </c>
       <c r="V11" t="n">
-        <v>1685.526967532542</v>
+        <v>1551.014545971841</v>
       </c>
       <c r="W11" t="n">
-        <v>1685.526967532542</v>
+        <v>1551.014545971841</v>
       </c>
       <c r="X11" t="n">
-        <v>1312.061209271462</v>
+        <v>1177.548787710761</v>
       </c>
       <c r="Y11" t="n">
-        <v>1312.061209271462</v>
+        <v>1177.548787710761</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>743.7701938734157</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C12" t="n">
-        <v>569.3171645922887</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D12" t="n">
-        <v>420.3827549310374</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E12" t="n">
-        <v>261.1452999255819</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F12" t="n">
-        <v>114.6107419524668</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6107419524668</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5121,10 +5121,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
         <v>974.4476973832902</v>
@@ -5142,28 +5142,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="D13" t="n">
-        <v>457.6519340239745</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="E13" t="n">
-        <v>309.7388404415814</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="F13" t="n">
-        <v>187.3781536425449</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="G13" t="n">
-        <v>187.3781536425449</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="H13" t="n">
-        <v>187.3781536425449</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="I13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>122.1900653661261</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2090.963399967084</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.963399967084</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D14" t="n">
-        <v>1732.697701360333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E14" t="n">
-        <v>1346.909448762089</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F14" t="n">
-        <v>935.9235439724814</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G14" t="n">
-        <v>517.6517764553662</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>187.3031671294075</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5306,22 +5306,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2150.911753141773</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967084</v>
+        <v>1897.12533102664</v>
       </c>
       <c r="V14" t="n">
-        <v>2090.963399967084</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.963399967084</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X14" t="n">
-        <v>2090.963399967084</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y14" t="n">
-        <v>2090.963399967084</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.129334229901</v>
+        <v>829.9842651606482</v>
       </c>
       <c r="C15" t="n">
-        <v>639.676304948774</v>
+        <v>655.5312358795212</v>
       </c>
       <c r="D15" t="n">
-        <v>490.7418952875228</v>
+        <v>506.5968262182699</v>
       </c>
       <c r="E15" t="n">
-        <v>331.5044402820673</v>
+        <v>347.3593712128144</v>
       </c>
       <c r="F15" t="n">
-        <v>184.9698823089523</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5367,7 +5367,7 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
         <v>1887.88481026779</v>
@@ -5379,28 +5379,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.069097472212</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.104970014923</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.344671249969</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="16">
@@ -5455,28 +5455,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V16" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W16" t="n">
-        <v>63.66691519346278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>63.66691519346278</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
         <v>46.89499644164432</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1038.169340412987</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>679.9036418062367</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5546,19 +5546,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>1407.131857353399</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3388114794014</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4044018181502</v>
       </c>
       <c r="E18" t="n">
         <v>506.2543262569397</v>
@@ -5592,16 +5592,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5628,16 +5628,16 @@
         <v>1755.793104690959</v>
       </c>
       <c r="V18" t="n">
-        <v>1755.793104690959</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.66691519346267</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>62.92974602799288</v>
       </c>
       <c r="F19" t="n">
         <v>46.89499644164432</v>
@@ -5677,46 +5677,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>353.0840852304233</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>63.66691519346267</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X19" t="n">
-        <v>63.66691519346267</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.66691519346267</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="20">
@@ -5777,25 +5777,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2258.662852754966</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2038.680093386545</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>2038.680093386545</v>
+        <v>2319.238222221376</v>
       </c>
       <c r="V20" t="n">
-        <v>2038.680093386545</v>
+        <v>1988.175334877805</v>
       </c>
       <c r="W20" t="n">
-        <v>2038.680093386545</v>
+        <v>1635.406679607691</v>
       </c>
       <c r="X20" t="n">
-        <v>2038.680093386545</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="Y20" t="n">
-        <v>1648.540761410733</v>
+        <v>1261.940921346611</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>982.9090180005296</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
         <v>814.4261909236466</v>
@@ -5832,19 +5832,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5853,28 +5853,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2281.967483241552</v>
       </c>
       <c r="T21" t="n">
-        <v>2284.306083296871</v>
+        <v>2082.424785295582</v>
       </c>
       <c r="U21" t="n">
-        <v>2056.125618951029</v>
+        <v>1854.24432094974</v>
       </c>
       <c r="V21" t="n">
-        <v>1820.973510719286</v>
+        <v>1619.092212717997</v>
       </c>
       <c r="W21" t="n">
-        <v>1566.736153991084</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X21" t="n">
-        <v>1358.884653785552</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>1151.124355020598</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5932,28 +5932,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1570.897369376658</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C23" t="n">
-        <v>1201.934852436247</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D23" t="n">
-        <v>843.6691538294961</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E23" t="n">
-        <v>457.8809012312519</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F23" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G23" t="n">
         <v>46.89499644164432</v>
@@ -5993,10 +5993,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,19 +6008,19 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
         <v>2344.749822082216</v>
@@ -6029,10 +6029,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y23" t="n">
-        <v>1957.49720944078</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>850.313229300958</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C24" t="n">
-        <v>675.860200019831</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D24" t="n">
-        <v>526.9257903585798</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E24" t="n">
-        <v>367.6883353531243</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F24" t="n">
-        <v>221.1537773800092</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G24" t="n">
-        <v>83.07889151270129</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,49 +6069,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U24" t="n">
-        <v>1923.529830251457</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V24" t="n">
-        <v>1688.377722019714</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W24" t="n">
-        <v>1434.140365291513</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X24" t="n">
-        <v>1226.28886508598</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.528566321026</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="25">
@@ -6178,10 +6178,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>318.5874281822333</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V25" t="n">
-        <v>63.90293997634646</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W25" t="n">
         <v>46.89499644164432</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1581.144731845325</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.144731845325</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="D26" t="n">
-        <v>1427.279502709952</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E26" t="n">
-        <v>1041.491250111708</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F26" t="n">
-        <v>630.5053453221001</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.240450114259</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.240450114259</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.749822082216</v>
+        <v>1983.240450114259</v>
       </c>
       <c r="X26" t="n">
-        <v>1971.284063821136</v>
+        <v>1983.240450114259</v>
       </c>
       <c r="Y26" t="n">
-        <v>1581.144731845325</v>
+        <v>1593.101118138447</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>910.756968086303</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>736.303938805176</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>587.3695291439248</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
         <v>506.2543262569397</v>
@@ -6315,13 +6315,13 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6345,10 +6345,10 @@
         <v>1494.584104076858</v>
       </c>
       <c r="X27" t="n">
-        <v>1286.732603871325</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y27" t="n">
-        <v>1078.972305106371</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6406,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V28" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W28" t="n">
         <v>46.89499644164432</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>570.4992764117354</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C29" t="n">
-        <v>570.4992764117354</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U29" t="n">
-        <v>1720.704206712749</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V29" t="n">
-        <v>1720.704206712749</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W29" t="n">
-        <v>1720.704206712749</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X29" t="n">
-        <v>1347.238448451669</v>
+        <v>1971.284063821137</v>
       </c>
       <c r="Y29" t="n">
-        <v>957.0991164758573</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,7 +6543,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
         <v>642.6780758583286</v>
@@ -6576,16 +6576,16 @@
         <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1755.793104690959</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="U31" t="n">
-        <v>2055.568676828139</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="V31" t="n">
-        <v>2055.568676828139</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="W31" t="n">
-        <v>2055.568676828139</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X31" t="n">
-        <v>2055.568676828139</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y31" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1697.04183215341</v>
+        <v>1958.149982018095</v>
       </c>
       <c r="C32" t="n">
-        <v>1697.04183215341</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="D32" t="n">
-        <v>1592.28953067257</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.501278074326</v>
+        <v>1203.399212479439</v>
       </c>
       <c r="F32" t="n">
-        <v>795.5153732847182</v>
+        <v>792.4133076898315</v>
       </c>
       <c r="G32" t="n">
         <v>377.243605767603</v>
@@ -6722,28 +6722,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y32" t="n">
-        <v>1697.04183215341</v>
+        <v>2344.749822082217</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>676.0544483625931</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>501.6014190814661</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>352.6670094202149</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E33" t="n">
-        <v>193.4295544147594</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2338.227766704349</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2176.994211604904</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.2697853826612</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>379.8701515943957</v>
+        <v>2073.29341512451</v>
       </c>
       <c r="V34" t="n">
-        <v>125.1856633885088</v>
+        <v>2073.29341512451</v>
       </c>
       <c r="W34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.1856633885088</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1374.559296527095</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C35" t="n">
-        <v>1374.559296527095</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D35" t="n">
-        <v>1016.293597920344</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E35" t="n">
-        <v>630.5053453221001</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F35" t="n">
-        <v>630.5053453221001</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6965,22 +6965,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U35" t="n">
-        <v>2095.761515846477</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="V35" t="n">
-        <v>1764.698628502907</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="W35" t="n">
-        <v>1764.698628502907</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="X35" t="n">
-        <v>1764.698628502907</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y35" t="n">
-        <v>1374.559296527095</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
         <v>121.6684232076319</v>
@@ -7038,28 +7038,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U36" t="n">
-        <v>1955.335802636929</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G37" t="n">
         <v>46.89499644164432</v>
@@ -7117,28 +7117,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="W37" t="n">
-        <v>318.3514033993496</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="X37" t="n">
-        <v>318.3514033993496</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.55882425581953</v>
+        <v>236.7148120170114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1192.394979505922</v>
+        <v>1273.65434558289</v>
       </c>
       <c r="C38" t="n">
-        <v>823.4324625655099</v>
+        <v>1273.65434558289</v>
       </c>
       <c r="D38" t="n">
-        <v>465.1667639587595</v>
+        <v>1273.65434558289</v>
       </c>
       <c r="E38" t="n">
-        <v>465.1667639587595</v>
+        <v>887.866092984646</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>476.8801881950384</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>58.60842067792328</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>58.60842067792328</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U38" t="n">
-        <v>2300.197038889426</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V38" t="n">
-        <v>1969.134151545855</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W38" t="n">
-        <v>1969.134151545855</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X38" t="n">
-        <v>1969.134151545855</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y38" t="n">
-        <v>1578.994819570043</v>
+        <v>1660.254185647012</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>881.8450797407235</v>
+        <v>857.284873186858</v>
       </c>
       <c r="C39" t="n">
-        <v>707.3920504595965</v>
+        <v>682.831843905731</v>
       </c>
       <c r="D39" t="n">
-        <v>558.4576407983452</v>
+        <v>533.8974342444798</v>
       </c>
       <c r="E39" t="n">
-        <v>399.2201857928898</v>
+        <v>374.6599792390243</v>
       </c>
       <c r="F39" t="n">
-        <v>252.6856278197748</v>
+        <v>228.1254212659092</v>
       </c>
       <c r="G39" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7254,49 +7254,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.242145037065</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1955.061680691222</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1719.90957245948</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.672215731278</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X39" t="n">
-        <v>1257.820715525745</v>
+        <v>1233.26050897188</v>
       </c>
       <c r="Y39" t="n">
-        <v>1050.060416760791</v>
+        <v>1025.500210206926</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>491.4892447774382</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>274.7934182835589</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>1827.343101147238</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.684223757015</v>
+        <v>974.5621324127812</v>
       </c>
       <c r="C41" t="n">
-        <v>1215.721706816603</v>
+        <v>605.5996154723696</v>
       </c>
       <c r="D41" t="n">
-        <v>1215.721706816603</v>
+        <v>247.3339168656191</v>
       </c>
       <c r="E41" t="n">
-        <v>1215.721706816603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>804.7358020269955</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>386.4640345098804</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11542518392167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7439,22 +7439,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="Y41" t="n">
-        <v>1971.284063821136</v>
+        <v>1361.161972476903</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
         <v>1887.88481026779</v>
@@ -7518,22 +7518,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.9389633519936</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.3275294625404</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7600,19 +7600,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.5874281822333</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>939.4617933521472</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="C44" t="n">
-        <v>570.4992764117354</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2335778049849</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2280.25763031141</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2097.062517449386</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1877.079758080964</v>
+        <v>2266.719721954586</v>
       </c>
       <c r="U44" t="n">
-        <v>1623.293335965832</v>
+        <v>2266.719721954586</v>
       </c>
       <c r="V44" t="n">
-        <v>1292.230448622261</v>
+        <v>1935.656834611016</v>
       </c>
       <c r="W44" t="n">
-        <v>939.4617933521472</v>
+        <v>1582.888179340902</v>
       </c>
       <c r="X44" t="n">
-        <v>939.4617933521472</v>
+        <v>1209.422421079822</v>
       </c>
       <c r="Y44" t="n">
-        <v>939.4617933521472</v>
+        <v>819.2830891040103</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>843.8100588399052</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C45" t="n">
-        <v>669.3570295587782</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>520.4226198975269</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>361.1851648920714</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
-        <v>214.6506069189564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>214.6506069189564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>107.6164664549065</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1427.63719483046</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X45" t="n">
-        <v>1219.785694624927</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.025395859973</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>184.1479023025165</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7837,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>353.0840852304234</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W46" t="n">
-        <v>353.0840852304234</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X46" t="n">
-        <v>353.0840852304234</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y46" t="n">
-        <v>353.0840852304234</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O15" t="n">
-        <v>237.9065809724248</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>323.3866360392491</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,7 +9480,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q21" t="n">
         <v>57.08896698613911</v>
@@ -9717,7 +9717,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>261.4978194579837</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O27" t="n">
-        <v>390.8949017221348</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488643</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10902,7 +10902,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,10 +11148,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O42" t="n">
-        <v>237.9065809724248</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,13 +22550,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>89.30758094638082</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22790,16 +22790,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,10 +22835,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22869,22 +22869,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>127.8460714905183</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,22 +22911,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>162.3253343706633</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23021,28 +23021,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23075,13 +23075,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23100,10 +23100,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,10 +23112,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23148,7 +23148,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>5.594825218936165</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,10 +23160,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>67.06409450346541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>13.05694831213967</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>10.98582478958184</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23349,13 +23349,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>76.57988169550534</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>24.28396809188517</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23434,10 +23434,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>119.4049990298564</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>24.68110656882163</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>25.88324352369844</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>51.34220643427462</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23592,7 +23592,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.237302184546</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>138.942133518969</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.9804537877945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23732,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>245.9821299437216</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23786,13 +23786,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23817,7 +23817,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>136.7065056498026</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>70.43910215024479</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>150.6426215343277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>129.5466459324462</v>
       </c>
       <c r="G19" t="n">
         <v>167.4465608509556</v>
@@ -23911,7 +23911,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23947,13 +23947,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24017,25 +24017,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>96.13706209942656</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>225.9920740317493</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>5.910500182201531</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>97.46670409619227</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24145,7 +24145,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>24.28396809188516</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24172,10 +24172,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>98.60138091697756</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,19 +24206,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>66.72206926975417</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.857852141031628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="H24" t="n">
-        <v>70.14174293906302</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>269.6851342372359</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>202.3564647766639</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>184.7670210605022</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24528,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>77.3410295972858</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>77.34102959728571</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>37.69782020388202</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,22 +24683,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>39.47474081817489</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2193018264103</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24774,10 +24774,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24816,13 +24816,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>70.43910215024479</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>130.2373021845461</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>27.489615255529</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24883,16 +24883,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>30.66303593248139</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>250.9782631546511</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.071044938937746</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,22 +24999,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>57.98884467712183</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.38246657340287</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>79.87903677242504</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
@@ -25126,16 +25126,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>17.54749091340733</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25205,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>78.37994436066072</v>
+        <v>239.652267900065</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25248,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>30.45538403358717</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>129.6747906459038</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9459914542735</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
@@ -25357,10 +25357,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.6194376234954</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,16 +25391,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>152.088905555791</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>207.1413025331184</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25482,10 +25482,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>130.2784035477363</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2758902402605</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>124.2146335995364</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,13 +25594,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>37.69782020388202</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>183.4958388525268</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>154.5569710948526</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>98.4931316749374</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25716,16 +25716,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>78.10329385738203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25801,7 +25801,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0.5385893591337663</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288916</v>
@@ -25840,7 +25840,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25883,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.782539786963049</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.162942288445</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25959,10 +25959,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>6.924332742584703</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26004,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>53.38246657340304</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>162.9941160825822</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>12.73509621594894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,7 +26077,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>423769.2598999695</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423769.2598999696</v>
+        <v>423769.2598999697</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>669695.2059045045</v>
+        <v>669695.2059045043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669695.2059045041</v>
+        <v>669695.2059045044</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>669695.2059045041</v>
+        <v>669695.2059045042</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669695.2059045044</v>
+        <v>669695.2059045043</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>669695.2059045043</v>
+        <v>669695.2059045042</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>669695.2059045041</v>
+        <v>669695.2059045042</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669695.2059045043</v>
+        <v>669695.2059045044</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669695.2059045044</v>
+        <v>669695.2059045043</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>669695.2059045041</v>
+        <v>669695.2059045043</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>669695.2059045041</v>
+        <v>669695.2059045043</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669695.2059045043</v>
+        <v>669695.2059045042</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>166160.6725313323</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
         <v>264376.0997642151</v>
@@ -26335,10 +26335,10 @@
         <v>264376.0997642151</v>
       </c>
       <c r="J2" t="n">
-        <v>264376.0997642154</v>
+        <v>264376.0997642152</v>
       </c>
       <c r="K2" t="n">
-        <v>264376.0997642151</v>
+        <v>264376.0997642152</v>
       </c>
       <c r="L2" t="n">
         <v>264376.0997642151</v>
@@ -26347,10 +26347,10 @@
         <v>264376.0997642151</v>
       </c>
       <c r="N2" t="n">
-        <v>264376.0997642153</v>
+        <v>264376.0997642151</v>
       </c>
       <c r="O2" t="n">
-        <v>264376.0997642152</v>
+        <v>264376.0997642151</v>
       </c>
       <c r="P2" t="n">
         <v>264376.0997642152</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="F4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="G4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="H4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="I4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="J4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="K4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="L4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="M4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="N4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="P4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30393.26897922646</v>
+        <v>28562.8611666806</v>
       </c>
       <c r="C6" t="n">
-        <v>111162.7005107742</v>
+        <v>109332.2926982282</v>
       </c>
       <c r="D6" t="n">
-        <v>111162.7005107741</v>
+        <v>109332.2926982283</v>
       </c>
       <c r="E6" t="n">
-        <v>-130742.9252868162</v>
+        <v>-132658.0720198713</v>
       </c>
       <c r="F6" t="n">
-        <v>214869.4174921366</v>
+        <v>212954.2707590815</v>
       </c>
       <c r="G6" t="n">
-        <v>214869.4174921365</v>
+        <v>212954.2707590814</v>
       </c>
       <c r="H6" t="n">
-        <v>214869.4174921365</v>
+        <v>212954.2707590814</v>
       </c>
       <c r="I6" t="n">
-        <v>214869.4174921365</v>
+        <v>212954.2707590814</v>
       </c>
       <c r="J6" t="n">
-        <v>151809.4748930305</v>
+        <v>149894.3281599753</v>
       </c>
       <c r="K6" t="n">
-        <v>214869.4174921364</v>
+        <v>212954.2707590815</v>
       </c>
       <c r="L6" t="n">
-        <v>214869.4174921365</v>
+        <v>212954.2707590814</v>
       </c>
       <c r="M6" t="n">
-        <v>128850.8836720605</v>
+        <v>126935.7369390054</v>
       </c>
       <c r="N6" t="n">
-        <v>214869.4174921367</v>
+        <v>212954.2707590814</v>
       </c>
       <c r="O6" t="n">
-        <v>214869.4174921365</v>
+        <v>212954.2707590814</v>
       </c>
       <c r="P6" t="n">
-        <v>214869.4174921365</v>
+        <v>212954.2707590815</v>
       </c>
     </row>
   </sheetData>
@@ -32230,25 +32230,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32257,16 +32257,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32333,7 +32333,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32342,10 +32342,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35735,10 +35735,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O15" t="n">
-        <v>249.8143946212776</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35890,13 +35890,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>360.937879158497</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36215,7 +36215,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547479</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36455,7 +36455,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O27" t="n">
-        <v>402.8027153709875</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,7 +37157,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37166,7 +37166,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37637,10 +37637,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093428</v>
@@ -37868,10 +37868,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O42" t="n">
-        <v>249.8143946212776</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38108,13 +38108,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135555.97252736</v>
+        <v>1059683.308122433</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.3829109174</v>
+        <v>431491.3829109175</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7094600.041063453</v>
+        <v>7094600.041063452</v>
       </c>
     </row>
     <row r="11">
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22.53539329780094</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,13 +949,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>102.3382270926889</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>75.40265165491188</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>129.9418893751786</v>
       </c>
       <c r="X9" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,40 +1305,40 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.4837081715351</v>
+        <v>307.2104613535413</v>
       </c>
       <c r="H11" t="n">
-        <v>330.4954059624608</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623702</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>9.251933869677936</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863037</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
-        <v>168.330385284461</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.63526629374389</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.7529098367821</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>34.06409783912149</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>98.420765936237</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>112.9605720967404</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863037</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>117.5644181971107</v>
+        <v>215.7243617358455</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>249.2776254087143</v>
+        <v>123.5289014911849</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>308.4888478687496</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>343.3715424209751</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,19 +1925,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>135.6487789765324</v>
       </c>
       <c r="T18" t="n">
         <v>198.3983972633722</v>
       </c>
       <c r="U18" t="n">
-        <v>154.3215517295719</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7529098367822</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>192.4378790671265</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>178.9002608012674</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>119.0219534948002</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>299.6027989237174</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.349018641242081</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863037</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S21" t="n">
         <v>163.5434392080944</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>95.25109432498304</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.56797001967699</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>123.5289014911849</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>104.5113366705975</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>215.0393446428039</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964033</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>206.3545628809984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>286.1752255188695</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2684,7 +2684,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>124.66726794937</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2845,10 +2845,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>165.5528448095108</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250819</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.7104230564944</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>25.02169492285067</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>68.29401393316067</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>80.37052065188855</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>266.4067121165716</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>49.78406924973842</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609189</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>134.3208427877754</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>296.4456281581536</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>191.6216610647208</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017901</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>90.36399926182381</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>290.5283745868794</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.87170836083654</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>70.18226380646142</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>243.6919025106848</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.3269680320489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.751008370397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365.4316055857233</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>190.9785763045963</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>42.04416664334499</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W3" t="n">
-        <v>533.6469426057913</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>533.6469426057913</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,19 +4588,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
         <v>262.7299197543128</v>
@@ -4612,7 +4612,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>450.5541580367384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>315.6850394389064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>72.23626279480629</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>501.9060370580465</v>
+        <v>422.7646269515677</v>
       </c>
       <c r="C9" t="n">
-        <v>327.4530077769195</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>630.6161271571005</v>
       </c>
       <c r="X9" t="n">
-        <v>877.8816728430684</v>
+        <v>422.7646269515677</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.1213740781145</v>
+        <v>422.7646269515677</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>790.2757338424655</v>
+        <v>759.0710802679775</v>
       </c>
       <c r="C11" t="n">
-        <v>790.2757338424655</v>
+        <v>759.0710802679775</v>
       </c>
       <c r="D11" t="n">
-        <v>790.2757338424655</v>
+        <v>759.0710802679775</v>
       </c>
       <c r="E11" t="n">
-        <v>790.2757338424655</v>
+        <v>759.0710802679775</v>
       </c>
       <c r="F11" t="n">
-        <v>790.2757338424655</v>
+        <v>348.08517547837</v>
       </c>
       <c r="G11" t="n">
-        <v>371.6053215479856</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H11" t="n">
         <v>37.7715781515605</v>
@@ -5041,16 +5041,16 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J11" t="n">
-        <v>94.76073252434969</v>
+        <v>94.76073252435003</v>
       </c>
       <c r="K11" t="n">
-        <v>300.9175062625693</v>
+        <v>300.9175062625698</v>
       </c>
       <c r="L11" t="n">
-        <v>608.9498412559813</v>
+        <v>608.9498412559816</v>
       </c>
       <c r="M11" t="n">
-        <v>968.3017108859925</v>
+        <v>968.3017108859927</v>
       </c>
       <c r="N11" t="n">
         <v>1318.836271911618</v>
@@ -5065,28 +5065,28 @@
         <v>1888.578907578025</v>
       </c>
       <c r="R11" t="n">
-        <v>1789.163992490917</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S11" t="n">
-        <v>1596.884761764694</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T11" t="n">
-        <v>1375.156934883358</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U11" t="n">
-        <v>1121.338621186036</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V11" t="n">
-        <v>790.2757338424655</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="W11" t="n">
-        <v>790.2757338424655</v>
+        <v>1535.810252307911</v>
       </c>
       <c r="X11" t="n">
-        <v>790.2757338424655</v>
+        <v>1535.810252307911</v>
       </c>
       <c r="Y11" t="n">
-        <v>790.2757338424655</v>
+        <v>1145.670920332099</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.8602895636632</v>
+        <v>221.569995179837</v>
       </c>
       <c r="C12" t="n">
-        <v>739.8602895636632</v>
+        <v>47.11696589870994</v>
       </c>
       <c r="D12" t="n">
-        <v>590.9258799024119</v>
+        <v>47.11696589870994</v>
       </c>
       <c r="E12" t="n">
-        <v>431.6884248969563</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F12" t="n">
-        <v>285.1538669238413</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G12" t="n">
-        <v>146.8656872966443</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H12" t="n">
         <v>37.7715781515605</v>
@@ -5123,49 +5123,49 @@
         <v>78.02054839819854</v>
       </c>
       <c r="K12" t="n">
-        <v>78.02054839819854</v>
+        <v>273.4332924261729</v>
       </c>
       <c r="L12" t="n">
-        <v>402.1814944610672</v>
+        <v>597.5942384890416</v>
       </c>
       <c r="M12" t="n">
-        <v>832.441250472688</v>
+        <v>1027.853994500662</v>
       </c>
       <c r="N12" t="n">
-        <v>1289.795715335532</v>
+        <v>1485.208459363507</v>
       </c>
       <c r="O12" t="n">
-        <v>1641.770020986651</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="P12" t="n">
-        <v>1888.578907578025</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q12" t="n">
         <v>1888.578907578025</v>
       </c>
       <c r="R12" t="n">
-        <v>1814.89224570062</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S12" t="n">
-        <v>1814.89224570062</v>
+        <v>1723.383514438536</v>
       </c>
       <c r="T12" t="n">
-        <v>1814.89224570062</v>
+        <v>1522.981092960382</v>
       </c>
       <c r="U12" t="n">
-        <v>1644.861553494094</v>
+        <v>1294.786596130336</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.709445262351</v>
+        <v>1059.634487898593</v>
       </c>
       <c r="W12" t="n">
-        <v>1155.47208853415</v>
+        <v>805.3971311703917</v>
       </c>
       <c r="X12" t="n">
-        <v>947.620588328617</v>
+        <v>597.5456309648589</v>
       </c>
       <c r="Y12" t="n">
-        <v>739.8602895636632</v>
+        <v>389.785332199905</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.52437238766544</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C13" t="n">
         <v>37.7715781515605</v>
@@ -5208,13 +5208,13 @@
         <v>139.3703405264044</v>
       </c>
       <c r="M13" t="n">
-        <v>235.5722772975927</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N13" t="n">
-        <v>334.9213634561165</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O13" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P13" t="n">
         <v>451.9654163614352</v>
@@ -5226,25 +5226,25 @@
         <v>451.9654163614352</v>
       </c>
       <c r="S13" t="n">
-        <v>451.9654163614352</v>
+        <v>326.9624771323623</v>
       </c>
       <c r="T13" t="n">
-        <v>451.9654163614352</v>
+        <v>326.9624771323623</v>
       </c>
       <c r="U13" t="n">
-        <v>451.9654163614352</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="V13" t="n">
-        <v>451.9654163614352</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="W13" t="n">
-        <v>451.9654163614352</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X13" t="n">
-        <v>451.9654163614352</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.1728372179051</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.037276758311</v>
+        <v>441.1422747274485</v>
       </c>
       <c r="C14" t="n">
-        <v>396.037276758311</v>
+        <v>72.17975778703675</v>
       </c>
       <c r="D14" t="n">
-        <v>37.7715781515605</v>
+        <v>72.17975778703675</v>
       </c>
       <c r="E14" t="n">
-        <v>37.7715781515605</v>
+        <v>72.17975778703675</v>
       </c>
       <c r="F14" t="n">
         <v>37.7715781515605</v>
@@ -5278,19 +5278,19 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J14" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252434969</v>
       </c>
       <c r="K14" t="n">
-        <v>300.9175062625695</v>
+        <v>300.9175062625693</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559815</v>
+        <v>608.9498412559813</v>
       </c>
       <c r="M14" t="n">
-        <v>968.3017108859926</v>
+        <v>968.3017108859925</v>
       </c>
       <c r="N14" t="n">
-        <v>1318.836271911618</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O14" t="n">
         <v>1604.648480067583</v>
@@ -5302,28 +5302,28 @@
         <v>1888.578907578025</v>
       </c>
       <c r="R14" t="n">
-        <v>1789.163992490917</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S14" t="n">
-        <v>1789.163992490917</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T14" t="n">
-        <v>1567.436165609581</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U14" t="n">
-        <v>1453.334577633076</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V14" t="n">
-        <v>1122.271690289505</v>
+        <v>1557.516020234454</v>
       </c>
       <c r="W14" t="n">
-        <v>769.5030350193908</v>
+        <v>1204.74736496434</v>
       </c>
       <c r="X14" t="n">
-        <v>396.037276758311</v>
+        <v>831.2816067032602</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.037276758311</v>
+        <v>441.1422747274485</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>492.4780007913823</v>
+        <v>805.2192096997063</v>
       </c>
       <c r="C15" t="n">
-        <v>492.4780007913823</v>
+        <v>630.7661804185793</v>
       </c>
       <c r="D15" t="n">
-        <v>343.5435911301311</v>
+        <v>481.8317707573281</v>
       </c>
       <c r="E15" t="n">
-        <v>184.3061361246755</v>
+        <v>322.5943157518726</v>
       </c>
       <c r="F15" t="n">
-        <v>37.7715781515605</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="G15" t="n">
         <v>37.7715781515605</v>
@@ -5357,52 +5357,52 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J15" t="n">
-        <v>78.02054839819856</v>
+        <v>78.02054839819854</v>
       </c>
       <c r="K15" t="n">
         <v>273.4332924261729</v>
       </c>
       <c r="L15" t="n">
-        <v>597.5942384890417</v>
+        <v>597.5942384890416</v>
       </c>
       <c r="M15" t="n">
-        <v>1027.853994500662</v>
+        <v>688.9893051104889</v>
       </c>
       <c r="N15" t="n">
-        <v>1146.343769973334</v>
+        <v>1146.343769973333</v>
       </c>
       <c r="O15" t="n">
-        <v>1498.318075624453</v>
+        <v>1498.318075624452</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.805418834996</v>
+        <v>1763.805418834995</v>
       </c>
       <c r="Q15" t="n">
         <v>1888.578907578025</v>
       </c>
       <c r="R15" t="n">
-        <v>1814.892245700621</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S15" t="n">
-        <v>1649.696852561131</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T15" t="n">
-        <v>1449.294431082978</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U15" t="n">
-        <v>1330.542493510139</v>
+        <v>1670.675511885251</v>
       </c>
       <c r="V15" t="n">
-        <v>1330.542493510139</v>
+        <v>1435.523403653509</v>
       </c>
       <c r="W15" t="n">
-        <v>1076.305136781937</v>
+        <v>1181.286046925307</v>
       </c>
       <c r="X15" t="n">
-        <v>868.4536365764043</v>
+        <v>973.4345467197743</v>
       </c>
       <c r="Y15" t="n">
-        <v>660.6933378114504</v>
+        <v>973.4345467197743</v>
       </c>
     </row>
     <row r="16">
@@ -5439,40 +5439,40 @@
         <v>37.7715781515605</v>
       </c>
       <c r="K16" t="n">
-        <v>57.9817912676671</v>
+        <v>57.98179126766708</v>
       </c>
       <c r="L16" t="n">
         <v>139.3703405264044</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5722772975927</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N16" t="n">
-        <v>334.9213634561165</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O16" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P16" t="n">
-        <v>451.9654163614353</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="Q16" t="n">
-        <v>451.9654163614353</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="R16" t="n">
-        <v>289.5671593724841</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="S16" t="n">
-        <v>289.5671593724841</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="T16" t="n">
-        <v>289.5671593724841</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="U16" t="n">
-        <v>37.7715781515605</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="V16" t="n">
-        <v>37.7715781515605</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="W16" t="n">
         <v>37.7715781515605</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>764.9997936987227</v>
+        <v>1515.113149316945</v>
       </c>
       <c r="C17" t="n">
-        <v>396.037276758311</v>
+        <v>1146.150632376533</v>
       </c>
       <c r="D17" t="n">
-        <v>37.7715781515605</v>
+        <v>1146.150632376533</v>
       </c>
       <c r="E17" t="n">
-        <v>37.7715781515605</v>
+        <v>760.3623797782889</v>
       </c>
       <c r="F17" t="n">
-        <v>37.7715781515605</v>
+        <v>349.3764749886813</v>
       </c>
       <c r="G17" t="n">
         <v>37.7715781515605</v>
@@ -5515,19 +5515,19 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J17" t="n">
-        <v>94.76073252434975</v>
+        <v>94.76073252434978</v>
       </c>
       <c r="K17" t="n">
         <v>300.9175062625694</v>
       </c>
       <c r="L17" t="n">
-        <v>608.9498412559815</v>
+        <v>608.9498412559813</v>
       </c>
       <c r="M17" t="n">
-        <v>968.3017108859926</v>
+        <v>968.3017108859925</v>
       </c>
       <c r="N17" t="n">
-        <v>1318.836271911618</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O17" t="n">
         <v>1604.648480067583</v>
@@ -5557,10 +5557,10 @@
         <v>1888.578907578025</v>
       </c>
       <c r="X17" t="n">
-        <v>1541.738965738656</v>
+        <v>1515.113149316945</v>
       </c>
       <c r="Y17" t="n">
-        <v>1151.599633762844</v>
+        <v>1515.113149316945</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>666.9310300725093</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="C18" t="n">
-        <v>492.4780007913823</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="D18" t="n">
-        <v>343.5435911301311</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="E18" t="n">
-        <v>184.3061361246755</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="F18" t="n">
-        <v>37.7715781515605</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="G18" t="n">
         <v>37.7715781515605</v>
@@ -5594,52 +5594,52 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J18" t="n">
-        <v>78.02054839819854</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K18" t="n">
-        <v>273.4332924261729</v>
+        <v>59.34209177902864</v>
       </c>
       <c r="L18" t="n">
-        <v>597.5942384890416</v>
+        <v>383.5030378418974</v>
       </c>
       <c r="M18" t="n">
-        <v>1027.853994500662</v>
+        <v>813.7627938535181</v>
       </c>
       <c r="N18" t="n">
-        <v>1485.208459363507</v>
+        <v>1271.117258716362</v>
       </c>
       <c r="O18" t="n">
-        <v>1498.318075624453</v>
+        <v>1623.091564367482</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.805418834996</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q18" t="n">
         <v>1888.578907578025</v>
       </c>
       <c r="R18" t="n">
-        <v>1888.578907578025</v>
+        <v>1814.89224570062</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.578907578025</v>
+        <v>1677.873277037456</v>
       </c>
       <c r="T18" t="n">
-        <v>1688.176486099871</v>
+        <v>1477.470855559302</v>
       </c>
       <c r="U18" t="n">
-        <v>1532.296130817475</v>
+        <v>1249.276358729257</v>
       </c>
       <c r="V18" t="n">
-        <v>1297.144022585733</v>
+        <v>1014.124250497514</v>
       </c>
       <c r="W18" t="n">
-        <v>1042.906665857531</v>
+        <v>759.8868937693123</v>
       </c>
       <c r="X18" t="n">
-        <v>1042.906665857531</v>
+        <v>552.0353935637795</v>
       </c>
       <c r="Y18" t="n">
-        <v>835.1463670925773</v>
+        <v>344.2750947988255</v>
       </c>
     </row>
     <row r="19">
@@ -5682,13 +5682,13 @@
         <v>139.3703405264044</v>
       </c>
       <c r="M19" t="n">
-        <v>235.5722772975927</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N19" t="n">
-        <v>334.9213634561165</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O19" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P19" t="n">
         <v>451.9654163614352</v>
@@ -5700,13 +5700,13 @@
         <v>451.9654163614352</v>
       </c>
       <c r="S19" t="n">
-        <v>326.9624771323623</v>
+        <v>232.153274178961</v>
       </c>
       <c r="T19" t="n">
-        <v>326.9624771323623</v>
+        <v>232.153274178961</v>
       </c>
       <c r="U19" t="n">
-        <v>37.7715781515605</v>
+        <v>232.153274178961</v>
       </c>
       <c r="V19" t="n">
         <v>37.7715781515605</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.354712128732</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="C20" t="n">
-        <v>1768.354712128732</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="D20" t="n">
-        <v>1768.354712128732</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="E20" t="n">
-        <v>1382.566459530488</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="F20" t="n">
-        <v>971.5805547408801</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G20" t="n">
-        <v>552.9101424464002</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H20" t="n">
-        <v>218.4789122942549</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I20" t="n">
         <v>37.7715781515605</v>
@@ -5755,13 +5755,13 @@
         <v>94.76073252434981</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625695</v>
+        <v>300.9175062625694</v>
       </c>
       <c r="L20" t="n">
-        <v>608.9498412559815</v>
+        <v>608.9498412559811</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3017108859926</v>
+        <v>968.3017108859925</v>
       </c>
       <c r="N20" t="n">
         <v>1318.836271911618</v>
@@ -5782,22 +5782,22 @@
         <v>1888.578907578025</v>
       </c>
       <c r="T20" t="n">
-        <v>1768.354712128732</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U20" t="n">
-        <v>1768.354712128732</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V20" t="n">
-        <v>1768.354712128732</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="W20" t="n">
-        <v>1768.354712128732</v>
+        <v>1535.810252307911</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.354712128732</v>
+        <v>1233.181162485974</v>
       </c>
       <c r="Y20" t="n">
-        <v>1768.354712128732</v>
+        <v>843.0418305101622</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>811.6323598423751</v>
+        <v>455.037551963351</v>
       </c>
       <c r="C21" t="n">
-        <v>637.1793305612481</v>
+        <v>455.037551963351</v>
       </c>
       <c r="D21" t="n">
-        <v>488.2449208999968</v>
+        <v>306.1031423020997</v>
       </c>
       <c r="E21" t="n">
-        <v>329.0074658945413</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="F21" t="n">
-        <v>182.4729079214263</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="G21" t="n">
-        <v>44.18472829422927</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="H21" t="n">
         <v>37.7715781515605</v>
@@ -5834,49 +5834,49 @@
         <v>37.7715781515605</v>
       </c>
       <c r="K21" t="n">
-        <v>37.7715781515605</v>
+        <v>59.34209177902881</v>
       </c>
       <c r="L21" t="n">
-        <v>361.9325242144293</v>
+        <v>383.5030378418975</v>
       </c>
       <c r="M21" t="n">
-        <v>792.1922802260501</v>
+        <v>813.7627938535182</v>
       </c>
       <c r="N21" t="n">
-        <v>1249.546745088894</v>
+        <v>1271.117258716362</v>
       </c>
       <c r="O21" t="n">
-        <v>1498.318075624453</v>
+        <v>1623.091564367482</v>
       </c>
       <c r="P21" t="n">
-        <v>1763.805418834996</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q21" t="n">
         <v>1888.578907578025</v>
       </c>
       <c r="R21" t="n">
-        <v>1814.892245700621</v>
+        <v>1814.89224570062</v>
       </c>
       <c r="S21" t="n">
         <v>1649.696852561131</v>
       </c>
       <c r="T21" t="n">
-        <v>1649.696852561131</v>
+        <v>1449.294431082977</v>
       </c>
       <c r="U21" t="n">
-        <v>1649.696852561131</v>
+        <v>1221.099934252931</v>
       </c>
       <c r="V21" t="n">
-        <v>1649.696852561131</v>
+        <v>1124.886707662039</v>
       </c>
       <c r="W21" t="n">
-        <v>1395.45949583293</v>
+        <v>870.6493509338377</v>
       </c>
       <c r="X21" t="n">
-        <v>1187.607995627397</v>
+        <v>662.7978507283049</v>
       </c>
       <c r="Y21" t="n">
-        <v>979.8476968624432</v>
+        <v>455.037551963351</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K22" t="n">
-        <v>1494.595282484257</v>
+        <v>57.98179126766708</v>
       </c>
       <c r="L22" t="n">
-        <v>1575.983831742994</v>
+        <v>139.3703405264043</v>
       </c>
       <c r="M22" t="n">
-        <v>1672.185768514183</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N22" t="n">
-        <v>1771.534854672706</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O22" t="n">
-        <v>1847.283520341171</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P22" t="n">
-        <v>1888.578907578025</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="Q22" t="n">
-        <v>1864.772877255119</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="R22" t="n">
-        <v>1702.374620266168</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="S22" t="n">
-        <v>1702.374620266168</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="T22" t="n">
-        <v>1702.374620266168</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="U22" t="n">
-        <v>1702.374620266168</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="V22" t="n">
-        <v>1702.374620266168</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="W22" t="n">
-        <v>1702.374620266168</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y22" t="n">
-        <v>1474.38506936815</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.5099885583417</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036444</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859355</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982752</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.1098286224635</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6080,37 +6080,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036444</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1957.780595683986</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C26" t="n">
-        <v>1957.780595683986</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224072</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.380435748108</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y26" t="n">
-        <v>2344.380435748108</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6305,25 +6305,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6332,22 +6332,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036444</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1912.117978031581</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C29" t="n">
-        <v>1543.155461091169</v>
+        <v>1251.118186271548</v>
       </c>
       <c r="D29" t="n">
-        <v>1184.889762484419</v>
+        <v>892.8524876647978</v>
       </c>
       <c r="E29" t="n">
-        <v>799.1015098861747</v>
+        <v>507.0642350665535</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861747</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
         <v>381.1377017843616</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2298.717818095703</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2298.717818095703</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2298.717818095703</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W29" t="n">
-        <v>2298.717818095703</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X29" t="n">
-        <v>2298.717818095703</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y29" t="n">
-        <v>2298.717818095703</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6566,25 +6566,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761945</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761945</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4805193761945</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036444</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.175505447094</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C32" t="n">
-        <v>1194.175505447094</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>835.9098068403439</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E32" t="n">
-        <v>450.1215542420996</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F32" t="n">
-        <v>450.1215542420996</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>450.1215542420996</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>122.9268342781025</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1322.340737411352</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511216</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036444</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632152</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632152</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632152</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981261</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632152</v>
+        <v>351.9727148150932</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.425425970681</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C35" t="n">
-        <v>951.4629090302697</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D35" t="n">
-        <v>593.1972104235191</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E35" t="n">
-        <v>207.4089578252748</v>
+        <v>887.4925516215203</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>476.5066468319127</v>
       </c>
       <c r="G35" t="n">
         <v>207.4089578252748</v>
@@ -6934,22 +6934,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2428.227485354186</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>2097.164598010615</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W35" t="n">
-        <v>2097.164598010615</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X35" t="n">
-        <v>2097.164598010615</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y35" t="n">
-        <v>1707.025266034803</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7028,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>484.4236418782189</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7116,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1937.08349269302</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="C38" t="n">
-        <v>1568.120975752609</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2448.563168150007</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2448.563168150007</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2095.794512879893</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757142</v>
+        <v>1722.328754618813</v>
       </c>
       <c r="Y38" t="n">
-        <v>2323.683332757142</v>
+        <v>1332.189422643001</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7365,13 +7365,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635867</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
         <v>53.94298182036444</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1261.831893336434</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C41" t="n">
-        <v>892.8693763960225</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D41" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E41" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036444</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2374.66614693175</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2374.66614693175</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V41" t="n">
-        <v>2374.66614693175</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W41" t="n">
-        <v>2021.897491661636</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X41" t="n">
-        <v>1648.431733400556</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y41" t="n">
-        <v>1648.431733400556</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036444</v>
@@ -7493,46 +7493,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>657.237808644352</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C43" t="n">
-        <v>488.3016257164451</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D43" t="n">
-        <v>338.1849863041093</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E43" t="n">
-        <v>190.2718927217162</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="F43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036444</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>657.237808644352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>657.237808644352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>657.237808644352</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>657.237808644352</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.237808644352</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>934.637173372437</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C44" t="n">
-        <v>565.6746564320254</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D44" t="n">
-        <v>207.4089578252748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
         <v>207.4089578252748</v>
@@ -7684,16 +7684,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.483574129469</v>
+        <v>1747.39302459356</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859355</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859355</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y44" t="n">
-        <v>934.637173372437</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>685.9562484787605</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036444</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>685.9562484787605</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>685.9562484787605</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W46" t="n">
-        <v>685.9562484787605</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>685.9562484787605</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>685.9562484787605</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>67.07862688331157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>319.7437877821538</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5956407417862</v>
+        <v>50.29373509393416</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.04346072268817</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>123.4174987094207</v>
       </c>
       <c r="N15" t="n">
-        <v>137.0548093029748</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>85.43550983875426</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>88.86702448681476</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>51.57475423615055</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268817</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.43550983875423</v>
+        <v>85.43550983875426</v>
       </c>
       <c r="K21" t="n">
-        <v>67.07862688331156</v>
+        <v>88.86702448681493</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>289.6168898670722</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268817</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22564,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22603,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>66.86123955361413</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>35.77382341366361</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>149.0074258151476</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>130.2800441223925</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>267.0043036912184</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23162,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>121.753093785741</v>
       </c>
       <c r="X9" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>107.2732468179937</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5915118881629837</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
         <v>178.9002608012674</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>148.393146585723</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
-        <v>74.30881812140659</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S12" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>57.58216657728448</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.611554804884</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.39827731939938</v>
+        <v>55.39827731939939</v>
       </c>
       <c r="R13" t="n">
         <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
-        <v>217.6140207606494</v>
+        <v>93.8611109238673</v>
       </c>
       <c r="T13" t="n">
         <v>226.3758391310088</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>372.81194790259</v>
       </c>
       <c r="G14" t="n">
         <v>414.4837081715351</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S14" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U14" t="n">
-        <v>138.3195584636081</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
-        <v>74.30881812140659</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U15" t="n">
-        <v>108.3481336646348</v>
+        <v>10.18819012589995</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.39827731939938</v>
+        <v>55.39827731939939</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
         <v>217.6140207606494</v>
@@ -23709,13 +23709,13 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U16" t="n">
-        <v>37.02136458227949</v>
+        <v>162.7700884998089</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.4837081715351</v>
+        <v>105.9948603027855</v>
       </c>
       <c r="H17" t="n">
         <v>331.0869178506238</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>26.35955825749397</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>74.30881812140659</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863037</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.5434392080944</v>
+        <v>27.894660231562</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>71.59100013217363</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939938</v>
+        <v>55.39827731939939</v>
       </c>
       <c r="R19" t="n">
         <v>160.7742744190617</v>
       </c>
       <c r="S19" t="n">
-        <v>93.86111092386724</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>59.69976425670151</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.420765936237</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S20" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
-        <v>100.4885951177222</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
         <v>251.2801305603485</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>70.12830175475165</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
-        <v>101.6541494123909</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140659</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>137.5494928244422</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.83030729972239</v>
+        <v>55.3982773193994</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S22" t="n">
         <v>217.6140207606494</v>
@@ -24183,16 +24183,16 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2989899909938</v>
+        <v>162.7700884998089</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>260.7615551004101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>154.6917560356652</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168096</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>148.3284787396846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>83.55587515959957</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24654,13 +24654,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.0104806616809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>282.2087777923414</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>50.89547554814698</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7235395900748</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923383</v>
@@ -24885,7 +24885,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>261.2601793191271</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>83.63730231170058</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>305.867418004165</v>
       </c>
     </row>
     <row r="33">
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25134,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>166.2659349629915</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>147.3774579042234</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>201.4400982585509</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.29463023043695</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>58.23741346252933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>59.60250644356847</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724705</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>126.084321095834</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>58.7125941305336</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>59.54933966209471</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,7 +25806,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>216.0996104355163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>84.06035595945011</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.91097062400473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>244.5308658715807</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>589380.7017977207</v>
+        <v>589380.7017977209</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>589380.7017977209</v>
+        <v>589380.7017977206</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>589380.701797721</v>
+        <v>589380.7017977209</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731739.4345746957</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731739.4345746961</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731739.4345746958</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
         <v>166160.6725313323</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>232303.6060448229</v>
+        <v>232303.6060448228</v>
       </c>
       <c r="F2" t="n">
-        <v>232303.6060448229</v>
+        <v>232303.606044823</v>
       </c>
       <c r="G2" t="n">
         <v>232303.6060448228</v>
@@ -26334,16 +26334,16 @@
         <v>232303.6060448229</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="M2" t="n">
         <v>289152.6100157574</v>
@@ -26352,7 +26352,7 @@
         <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157574</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184739.8879912182</v>
+        <v>184739.8879912183</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555038</v>
+        <v>57598.62967555039</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>8978.867210370721</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="J4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>33147.7907681928</v>
       </c>
       <c r="F5" t="n">
-        <v>33147.79076819281</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="G5" t="n">
         <v>33147.7907681928</v>
       </c>
       <c r="H5" t="n">
-        <v>33147.79076819281</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28562.8611666805</v>
+        <v>16344.85054664009</v>
       </c>
       <c r="C6" t="n">
-        <v>109332.2926982282</v>
+        <v>97114.28207818774</v>
       </c>
       <c r="D6" t="n">
-        <v>109332.2926982282</v>
+        <v>97114.2820781878</v>
       </c>
       <c r="E6" t="n">
-        <v>-42513.6605003295</v>
+        <v>-51424.52444469552</v>
       </c>
       <c r="F6" t="n">
-        <v>190176.9480662594</v>
+        <v>181266.0841218935</v>
       </c>
       <c r="G6" t="n">
-        <v>190176.9480662593</v>
+        <v>181266.0841218934</v>
       </c>
       <c r="H6" t="n">
-        <v>190176.9480662594</v>
+        <v>181266.0841218935</v>
       </c>
       <c r="I6" t="n">
-        <v>45810.22592676838</v>
+        <v>39741.81218094899</v>
       </c>
       <c r="J6" t="n">
-        <v>167490.1713188802</v>
+        <v>161421.757573061</v>
       </c>
       <c r="K6" t="n">
-        <v>230550.1139179867</v>
+        <v>224481.7001721672</v>
       </c>
       <c r="L6" t="n">
-        <v>230550.1139179865</v>
+        <v>224481.7001721674</v>
       </c>
       <c r="M6" t="n">
-        <v>172951.4842424361</v>
+        <v>166883.0704966169</v>
       </c>
       <c r="N6" t="n">
-        <v>230550.1139179865</v>
+        <v>224481.7001721672</v>
       </c>
       <c r="O6" t="n">
-        <v>230550.1139179864</v>
+        <v>224481.7001721673</v>
       </c>
       <c r="P6" t="n">
-        <v>230550.1139179865</v>
+        <v>224481.7001721673</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>203.7335492204967</v>
       </c>
       <c r="H3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204966</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>472.1447268945063</v>
+      </c>
+      <c r="F4" t="n">
         <v>472.1447268945062</v>
-      </c>
-      <c r="F4" t="n">
-        <v>472.1447268945063</v>
       </c>
       <c r="G4" t="n">
         <v>472.1447268945062</v>
       </c>
       <c r="H4" t="n">
-        <v>472.1447268945063</v>
+        <v>472.1447268945062</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.1425458600492</v>
+        <v>202.1425458600494</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168471</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.819029343599986</v>
+        <v>0.8190293435999859</v>
       </c>
       <c r="H11" t="n">
-        <v>8.387884265143359</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I11" t="n">
         <v>31.57562876913849</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136938</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K11" t="n">
         <v>104.1836038659568</v>
@@ -31770,7 +31770,7 @@
         <v>129.2489731401549</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N11" t="n">
         <v>146.1414533519046</v>
@@ -31782,19 +31782,19 @@
         <v>117.7774433963576</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44595502868306</v>
+        <v>88.44595502868304</v>
       </c>
       <c r="R11" t="n">
-        <v>51.44835200491267</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S11" t="n">
         <v>18.6636311672847</v>
       </c>
       <c r="T11" t="n">
-        <v>3.585300951608941</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552234748799887</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855966</v>
       </c>
       <c r="H12" t="n">
         <v>4.232276182863526</v>
@@ -31840,13 +31840,13 @@
         <v>15.08781473000848</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40211682791245</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104742</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981782</v>
+        <v>95.14933352981781</v>
       </c>
       <c r="M12" t="n">
         <v>111.0347843251707</v>
@@ -31861,13 +31861,13 @@
         <v>83.68067232039608</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333336</v>
+        <v>55.93831336333335</v>
       </c>
       <c r="R12" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S12" t="n">
-        <v>8.139731895743424</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T12" t="n">
         <v>1.7663314314494</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467972</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I13" t="n">
         <v>11.04837017740005</v>
@@ -31922,37 +31922,37 @@
         <v>25.97435757848856</v>
       </c>
       <c r="K13" t="n">
-        <v>42.6838485088188</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L13" t="n">
         <v>54.62063055659021</v>
       </c>
       <c r="M13" t="n">
-        <v>57.58979654441022</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210856</v>
       </c>
       <c r="O13" t="n">
         <v>51.92867579148005</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556535</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R13" t="n">
         <v>16.51911695810781</v>
       </c>
       <c r="S13" t="n">
-        <v>6.402577276322819</v>
+        <v>6.402577276322818</v>
       </c>
       <c r="T13" t="n">
         <v>1.569750297272679</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02003936549709806</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8190293435999861</v>
+        <v>0.8190293435999859</v>
       </c>
       <c r="H14" t="n">
-        <v>8.387884265143361</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I14" t="n">
-        <v>31.5756287691385</v>
+        <v>31.57562876913849</v>
       </c>
       <c r="J14" t="n">
-        <v>69.51409175136939</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K14" t="n">
         <v>104.1836038659568</v>
@@ -32007,31 +32007,31 @@
         <v>129.2489731401549</v>
       </c>
       <c r="M14" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N14" t="n">
-        <v>146.1414533519047</v>
+        <v>146.1414533519046</v>
       </c>
       <c r="O14" t="n">
-        <v>137.9972303164823</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P14" t="n">
         <v>117.7774433963576</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.44595502868307</v>
+        <v>88.44595502868304</v>
       </c>
       <c r="R14" t="n">
-        <v>51.44835200491268</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S14" t="n">
         <v>18.6636311672847</v>
       </c>
       <c r="T14" t="n">
-        <v>3.585300951608941</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552234748799889</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855966</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232276182863527</v>
+        <v>4.232276182863526</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08781473000849</v>
+        <v>15.08781473000848</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40211682791246</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76281209104744</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L15" t="n">
-        <v>95.14933352981784</v>
+        <v>95.14933352981781</v>
       </c>
       <c r="M15" t="n">
         <v>111.0347843251707</v>
@@ -32095,16 +32095,16 @@
         <v>104.2635268355121</v>
       </c>
       <c r="P15" t="n">
-        <v>83.6806723203961</v>
+        <v>83.68067232039608</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.93831336333337</v>
+        <v>55.93831336333335</v>
       </c>
       <c r="R15" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S15" t="n">
-        <v>8.139731895743425</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T15" t="n">
         <v>1.7663314314494</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467972</v>
       </c>
       <c r="H16" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I16" t="n">
         <v>11.04837017740005</v>
       </c>
       <c r="J16" t="n">
-        <v>25.97435757848857</v>
+        <v>25.97435757848856</v>
       </c>
       <c r="K16" t="n">
-        <v>42.68384850881881</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62063055659022</v>
+        <v>54.62063055659021</v>
       </c>
       <c r="M16" t="n">
-        <v>57.58979654441023</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N16" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210856</v>
       </c>
       <c r="O16" t="n">
-        <v>51.92867579148006</v>
+        <v>51.92867579148005</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43395309556536</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R16" t="n">
         <v>16.51911695810781</v>
       </c>
       <c r="S16" t="n">
-        <v>6.40257727632282</v>
+        <v>6.402577276322818</v>
       </c>
       <c r="T16" t="n">
         <v>1.569750297272679</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02003936549709806</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.819029343599986</v>
+        <v>0.8190293435999859</v>
       </c>
       <c r="H17" t="n">
-        <v>8.387884265143359</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I17" t="n">
         <v>31.57562876913849</v>
       </c>
       <c r="J17" t="n">
-        <v>69.51409175136938</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K17" t="n">
         <v>104.1836038659568</v>
@@ -32244,7 +32244,7 @@
         <v>129.2489731401549</v>
       </c>
       <c r="M17" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N17" t="n">
         <v>146.1414533519046</v>
@@ -32256,19 +32256,19 @@
         <v>117.7774433963576</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.44595502868306</v>
+        <v>88.44595502868304</v>
       </c>
       <c r="R17" t="n">
-        <v>51.44835200491267</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S17" t="n">
         <v>18.6636311672847</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585300951608941</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552234748799887</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855966</v>
       </c>
       <c r="H18" t="n">
         <v>4.232276182863526</v>
@@ -32314,13 +32314,13 @@
         <v>15.08781473000848</v>
       </c>
       <c r="J18" t="n">
-        <v>41.40211682791245</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76281209104742</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L18" t="n">
-        <v>95.14933352981782</v>
+        <v>95.14933352981781</v>
       </c>
       <c r="M18" t="n">
         <v>111.0347843251707</v>
@@ -32335,13 +32335,13 @@
         <v>83.68067232039608</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.93831336333336</v>
+        <v>55.93831336333335</v>
       </c>
       <c r="R18" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743424</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T18" t="n">
         <v>1.7663314314494</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467972</v>
       </c>
       <c r="H19" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I19" t="n">
         <v>11.04837017740005</v>
@@ -32396,37 +32396,37 @@
         <v>25.97435757848856</v>
       </c>
       <c r="K19" t="n">
-        <v>42.6838485088188</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L19" t="n">
         <v>54.62063055659021</v>
       </c>
       <c r="M19" t="n">
-        <v>57.58979654441022</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210856</v>
       </c>
       <c r="O19" t="n">
         <v>51.92867579148005</v>
       </c>
       <c r="P19" t="n">
-        <v>44.43395309556535</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R19" t="n">
         <v>16.51911695810781</v>
       </c>
       <c r="S19" t="n">
-        <v>6.402577276322819</v>
+        <v>6.402577276322818</v>
       </c>
       <c r="T19" t="n">
         <v>1.569750297272679</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02003936549709806</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8190293435999861</v>
+        <v>0.8190293435999858</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143361</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I20" t="n">
-        <v>31.5756287691385</v>
+        <v>31.57562876913848</v>
       </c>
       <c r="J20" t="n">
-        <v>69.51409175136939</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K20" t="n">
         <v>104.1836038659568</v>
@@ -32481,31 +32481,31 @@
         <v>129.2489731401549</v>
       </c>
       <c r="M20" t="n">
-        <v>143.8143862294012</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N20" t="n">
-        <v>146.1414533519047</v>
+        <v>146.1414533519046</v>
       </c>
       <c r="O20" t="n">
-        <v>137.9972303164823</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P20" t="n">
         <v>117.7774433963576</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.44595502868307</v>
+        <v>88.44595502868303</v>
       </c>
       <c r="R20" t="n">
-        <v>51.44835200491268</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S20" t="n">
         <v>18.6636311672847</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585300951608941</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799889</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855965</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232276182863527</v>
+        <v>4.232276182863525</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000849</v>
+        <v>15.08781473000848</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791246</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76281209104744</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L21" t="n">
-        <v>95.14933352981784</v>
+        <v>95.1493335298178</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0347843251707</v>
+        <v>111.0347843251706</v>
       </c>
       <c r="N21" t="n">
         <v>113.9735446719456</v>
@@ -32569,22 +32569,22 @@
         <v>104.2635268355121</v>
       </c>
       <c r="P21" t="n">
-        <v>83.6806723203961</v>
+        <v>83.68067232039607</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.93831336333337</v>
+        <v>55.93831336333334</v>
       </c>
       <c r="R21" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743425</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449399</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931557</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467971</v>
       </c>
       <c r="H22" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I22" t="n">
         <v>11.04837017740005</v>
       </c>
       <c r="J22" t="n">
-        <v>25.97435757848857</v>
+        <v>25.97435757848856</v>
       </c>
       <c r="K22" t="n">
-        <v>42.68384850881881</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659022</v>
+        <v>54.6206305565902</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441023</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210855</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148006</v>
+        <v>51.92867579148004</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43395309556536</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R22" t="n">
-        <v>16.51911695810781</v>
+        <v>16.5191169581078</v>
       </c>
       <c r="S22" t="n">
-        <v>6.40257727632282</v>
+        <v>6.402577276322817</v>
       </c>
       <c r="T22" t="n">
-        <v>1.569750297272679</v>
+        <v>1.569750297272678</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02003936549709806</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.56480239675686</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K11" t="n">
         <v>208.239165392141</v>
@@ -35430,7 +35430,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.45525581413825</v>
+        <v>78.45525581413824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>40.65552550165459</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L12" t="n">
         <v>327.4352990534028</v>
@@ -35503,13 +35503,13 @@
         <v>461.9742069321658</v>
       </c>
       <c r="O12" t="n">
-        <v>355.5296016677972</v>
+        <v>281.4110701732215</v>
       </c>
       <c r="P12" t="n">
-        <v>249.301905647852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>126.0338270131609</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L13" t="n">
         <v>82.21065581690635</v>
       </c>
       <c r="M13" t="n">
-        <v>97.17367350625081</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N13" t="n">
-        <v>100.3526122813372</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O13" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551972</v>
       </c>
       <c r="P13" t="n">
-        <v>41.71251236045884</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.56480239675687</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K14" t="n">
         <v>208.239165392141</v>
@@ -35655,10 +35655,10 @@
         <v>311.1437727206181</v>
       </c>
       <c r="M14" t="n">
-        <v>362.981686494961</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N14" t="n">
-        <v>354.0753141672979</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O14" t="n">
         <v>288.6992001575409</v>
@@ -35667,7 +35667,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.45525581413827</v>
+        <v>78.45525581413824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.6555255016546</v>
+        <v>40.65552550165459</v>
       </c>
       <c r="K15" t="n">
         <v>197.386610129267</v>
@@ -35734,10 +35734,10 @@
         <v>327.4352990534028</v>
       </c>
       <c r="M15" t="n">
-        <v>434.6058141531523</v>
+        <v>92.31824911257304</v>
       </c>
       <c r="N15" t="n">
-        <v>119.6866418915871</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O15" t="n">
         <v>355.5296016677972</v>
@@ -35746,7 +35746,7 @@
         <v>268.169033546003</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.033827013161</v>
+        <v>126.0338270131609</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L16" t="n">
         <v>82.21065581690635</v>
       </c>
       <c r="M16" t="n">
-        <v>97.17367350625082</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N16" t="n">
-        <v>100.3526122813372</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O16" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551972</v>
       </c>
       <c r="P16" t="n">
-        <v>41.71251236045885</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.56480239675686</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K17" t="n">
         <v>208.239165392141</v>
@@ -35904,7 +35904,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.45525581413825</v>
+        <v>78.45525581413824</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.65552550165459</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>197.386610129267</v>
+        <v>21.78839760350317</v>
       </c>
       <c r="L18" t="n">
         <v>327.4352990534028</v>
@@ -35977,13 +35977,13 @@
         <v>461.9742069321658</v>
       </c>
       <c r="O18" t="n">
-        <v>13.24203662721822</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P18" t="n">
         <v>268.169033546003</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.0338270131609</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L19" t="n">
         <v>82.21065581690635</v>
       </c>
       <c r="M19" t="n">
-        <v>97.17367350625081</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N19" t="n">
-        <v>100.3526122813372</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O19" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551972</v>
       </c>
       <c r="P19" t="n">
-        <v>41.71251236045884</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.56480239675687</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K20" t="n">
         <v>208.239165392141</v>
@@ -36129,10 +36129,10 @@
         <v>311.1437727206181</v>
       </c>
       <c r="M20" t="n">
-        <v>362.981686494961</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N20" t="n">
-        <v>354.0753141672979</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O20" t="n">
         <v>288.6992001575409</v>
@@ -36141,7 +36141,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.45525581413827</v>
+        <v>78.45525581413823</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>21.78839760350334</v>
       </c>
       <c r="L21" t="n">
         <v>327.4352990534028</v>
       </c>
       <c r="M21" t="n">
-        <v>434.6058141531523</v>
+        <v>434.6058141531522</v>
       </c>
       <c r="N21" t="n">
         <v>461.9742069321658</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2841722581399</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P21" t="n">
         <v>268.169033546003</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.033827013161</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690635</v>
+        <v>82.21065581690634</v>
       </c>
       <c r="M22" t="n">
-        <v>97.17367350625082</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N22" t="n">
-        <v>100.3526122813372</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O22" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551971</v>
       </c>
       <c r="P22" t="n">
-        <v>41.71251236045885</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047518</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
